--- a/report_ca_nhan/LONG XUYÊN/NV-22 Nguyễn Phúc Nam 7-2024.xlsx
+++ b/report_ca_nhan/LONG XUYÊN/NV-22 Nguyễn Phúc Nam 7-2024.xlsx
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-4000000</v>
       </c>
     </row>
     <row r="22">
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31">
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8707500</v>
+        <v>4707500</v>
       </c>
     </row>
     <row r="33">
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8707500</v>
+        <v>4707500</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/LONG XUYÊN/NV-22 Nguyễn Phúc Nam 7-2024.xlsx
+++ b/report_ca_nhan/LONG XUYÊN/NV-22 Nguyễn Phúc Nam 7-2024.xlsx
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="3">
@@ -1250,7 +1250,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>612500</v>
+        <v>647500</v>
       </c>
     </row>
     <row r="4">
@@ -1350,7 +1350,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5300000</v>
+        <v>5602857.142857143</v>
       </c>
     </row>
     <row r="14">
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4707500</v>
+        <v>5045357.142857142</v>
       </c>
     </row>
     <row r="33">
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4707500</v>
+        <v>5045357.142857142</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/LONG XUYÊN/NV-22 Nguyễn Phúc Nam 7-2024.xlsx
+++ b/report_ca_nhan/LONG XUYÊN/NV-22 Nguyễn Phúc Nam 7-2024.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -778,35 +778,91 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>574</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Trần thị mỹ duyên</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="I7" t="n">
+        <v/>
+      </c>
+      <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>23850000</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>23850000</v>
-      </c>
-      <c r="L7" t="n">
-        <v>20850000</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2535000</v>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>28850000</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>28850000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>25850000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3035000</v>
       </c>
     </row>
   </sheetData>
@@ -1240,7 +1296,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="3">
@@ -1250,7 +1306,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>647500</v>
+        <v>717500</v>
       </c>
     </row>
     <row r="4">
@@ -1350,7 +1406,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5602857.142857143</v>
+        <v>6208571.428571428</v>
       </c>
     </row>
     <row r="14">
@@ -1360,7 +1416,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2535000</v>
+        <v>3035000</v>
       </c>
     </row>
     <row r="15">
@@ -1540,7 +1596,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5045357.142857142</v>
+        <v>6221071.428571429</v>
       </c>
     </row>
     <row r="33">
@@ -1560,7 +1616,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5045357.142857142</v>
+        <v>6221071.428571429</v>
       </c>
     </row>
   </sheetData>
